--- a/downloads/notebooks/data/Dow.xlsx
+++ b/downloads/notebooks/data/Dow.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Stock Symbol</t>
   </si>
@@ -22,9 +27,6 @@
     <t>Company Name</t>
   </si>
   <si>
-    <t>Com Rate %</t>
-  </si>
-  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
@@ -44,9 +46,6 @@
   </si>
   <si>
     <t>200-day moving average</t>
-  </si>
-  <si>
-    <t>Dif 50-day</t>
   </si>
   <si>
     <t>WMT</t>
@@ -232,11 +231,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +299,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -346,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -378,9 +385,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,6 +420,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,14 +596,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,1151 +633,965 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="E2">
-        <v>0.0242</v>
+        <v>85.91</v>
       </c>
       <c r="F2">
-        <v>85.91</v>
-      </c>
-      <c r="G2">
         <v>2.08</v>
       </c>
+      <c r="G2" s="2">
+        <v>43440</v>
+      </c>
       <c r="H2" s="2">
-        <v>43440</v>
-      </c>
-      <c r="I2" s="2">
         <v>43467</v>
       </c>
+      <c r="I2">
+        <v>82.35</v>
+      </c>
       <c r="J2">
-        <v>82.34999999999999</v>
-      </c>
-      <c r="K2">
-        <v>78.68000000000001</v>
-      </c>
-      <c r="L2">
-        <v>-3.560000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>78.680000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="E3">
-        <v>0.007</v>
+        <v>119.78</v>
       </c>
       <c r="F3">
-        <v>119.78</v>
-      </c>
-      <c r="G3">
         <v>0.84</v>
       </c>
+      <c r="G3" s="2">
+        <v>43146</v>
+      </c>
       <c r="H3" s="2">
-        <v>43146</v>
-      </c>
-      <c r="I3" s="2">
         <v>43165</v>
       </c>
+      <c r="I3">
+        <v>106.44</v>
+      </c>
       <c r="J3">
-        <v>106.44</v>
-      </c>
-      <c r="K3">
-        <v>98.9627</v>
-      </c>
-      <c r="L3">
-        <v>-13.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>98.962699999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="E4">
-        <v>0.0496</v>
+        <v>47.58</v>
       </c>
       <c r="F4">
-        <v>47.58</v>
-      </c>
-      <c r="G4">
         <v>2.36</v>
       </c>
+      <c r="G4" s="2">
+        <v>43199</v>
+      </c>
       <c r="H4" s="2">
-        <v>43199</v>
-      </c>
-      <c r="I4" s="2">
         <v>43221</v>
       </c>
+      <c r="I4">
+        <v>48.73</v>
+      </c>
       <c r="J4">
-        <v>48.73</v>
-      </c>
-      <c r="K4">
         <v>47.03</v>
       </c>
-      <c r="L4">
-        <v>1.149999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1.35E-2</v>
       </c>
       <c r="E5">
-        <v>0.0135</v>
+        <v>221.9</v>
       </c>
       <c r="F5">
-        <v>221.9</v>
-      </c>
-      <c r="G5">
         <v>3</v>
       </c>
+      <c r="G5" s="2">
+        <v>43167</v>
+      </c>
       <c r="H5" s="2">
-        <v>43167</v>
-      </c>
-      <c r="I5" s="2">
         <v>43179</v>
       </c>
+      <c r="I5">
+        <v>198.85</v>
+      </c>
       <c r="J5">
-        <v>198.85</v>
-      </c>
-      <c r="K5">
         <v>187.48</v>
       </c>
-      <c r="L5">
-        <v>-23.05000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>2.29E-2</v>
       </c>
       <c r="E6">
-        <v>0.0229</v>
+        <v>122.45</v>
       </c>
       <c r="F6">
-        <v>122.45</v>
-      </c>
-      <c r="G6">
         <v>2.8</v>
       </c>
+      <c r="G6" s="2">
+        <v>43146</v>
+      </c>
       <c r="H6" s="2">
-        <v>43146</v>
-      </c>
-      <c r="I6" s="2">
         <v>43169</v>
       </c>
+      <c r="I6">
+        <v>116.43</v>
+      </c>
       <c r="J6">
-        <v>116.43</v>
-      </c>
-      <c r="K6">
         <v>118.62</v>
       </c>
-      <c r="L6">
-        <v>-6.019999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>0.0211</v>
+        <v>136.59</v>
       </c>
       <c r="F7">
-        <v>136.59</v>
-      </c>
-      <c r="G7">
         <v>2.88</v>
       </c>
+      <c r="G7" s="2">
+        <v>43167</v>
+      </c>
       <c r="H7" s="2">
-        <v>43167</v>
-      </c>
-      <c r="I7" s="2">
         <v>43189</v>
       </c>
+      <c r="I7">
+        <v>125.36</v>
+      </c>
       <c r="J7">
-        <v>125.36</v>
-      </c>
-      <c r="K7">
         <v>124.75</v>
       </c>
-      <c r="L7">
-        <v>-11.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1.67E-2</v>
       </c>
       <c r="E8">
-        <v>0.0167</v>
+        <v>100.8</v>
       </c>
       <c r="F8">
-        <v>100.8</v>
-      </c>
-      <c r="G8">
         <v>1.68</v>
       </c>
+      <c r="G8" s="2">
+        <v>43077</v>
+      </c>
       <c r="H8" s="2">
-        <v>43077</v>
-      </c>
-      <c r="I8" s="2">
         <v>43111</v>
       </c>
+      <c r="I8">
+        <v>98.688000000000002</v>
+      </c>
       <c r="J8">
-        <v>98.688</v>
-      </c>
-      <c r="K8">
         <v>104.858</v>
       </c>
-      <c r="L8">
-        <v>-2.111999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3.6700000000000003E-2</v>
       </c>
       <c r="E9">
-        <v>0.0367</v>
+        <v>78.27</v>
       </c>
       <c r="F9">
-        <v>78.27</v>
-      </c>
-      <c r="G9">
         <v>2.87</v>
       </c>
+      <c r="G9" s="2">
+        <v>43209</v>
+      </c>
       <c r="H9" s="2">
-        <v>43209</v>
-      </c>
-      <c r="I9" s="2">
         <v>43235</v>
       </c>
+      <c r="I9">
+        <v>91.686400000000006</v>
+      </c>
       <c r="J9">
-        <v>91.68640000000001</v>
-      </c>
-      <c r="K9">
-        <v>89.76000000000001</v>
-      </c>
-      <c r="L9">
-        <v>13.41640000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>89.76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="E10">
-        <v>0.038</v>
+        <v>35.79</v>
       </c>
       <c r="F10">
-        <v>35.79</v>
-      </c>
-      <c r="G10">
         <v>1.36</v>
       </c>
+      <c r="G10" s="2">
+        <v>43132</v>
+      </c>
       <c r="H10" s="2">
-        <v>43132</v>
-      </c>
-      <c r="I10" s="2">
         <v>43160</v>
       </c>
+      <c r="I10">
+        <v>35.81</v>
+      </c>
       <c r="J10">
-        <v>35.81</v>
-      </c>
-      <c r="K10">
         <v>33.9</v>
       </c>
-      <c r="L10">
-        <v>0.02000000000000313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>1.2E-2</v>
       </c>
       <c r="E11">
-        <v>0.012</v>
+        <v>66.83</v>
       </c>
       <c r="F11">
-        <v>66.83</v>
-      </c>
-      <c r="G11">
         <v>0.8</v>
       </c>
+      <c r="G11" s="2">
+        <v>43161</v>
+      </c>
       <c r="H11" s="2">
-        <v>43161</v>
-      </c>
-      <c r="I11" s="2">
         <v>43192</v>
       </c>
+      <c r="I11">
+        <v>52.85</v>
+      </c>
       <c r="J11">
-        <v>52.85</v>
-      </c>
-      <c r="K11">
         <v>54.69</v>
       </c>
-      <c r="L11">
-        <v>-13.98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>1.83E-2</v>
       </c>
       <c r="E12">
-        <v>0.0183</v>
+        <v>91.86</v>
       </c>
       <c r="F12">
-        <v>91.86</v>
-      </c>
-      <c r="G12">
         <v>1.68</v>
       </c>
+      <c r="G12" s="2">
+        <v>43236</v>
+      </c>
       <c r="H12" s="2">
-        <v>43236</v>
-      </c>
-      <c r="I12" s="2">
         <v>43265</v>
       </c>
+      <c r="I12">
+        <v>76.09</v>
+      </c>
       <c r="J12">
-        <v>76.09</v>
-      </c>
-      <c r="K12">
         <v>72</v>
       </c>
-      <c r="L12">
-        <v>-15.77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3.4200000000000001E-2</v>
       </c>
       <c r="E13">
-        <v>0.0342</v>
+        <v>56.2</v>
       </c>
       <c r="F13">
-        <v>56.2</v>
-      </c>
-      <c r="G13">
         <v>1.92</v>
       </c>
+      <c r="G13" s="2">
+        <v>43173</v>
+      </c>
       <c r="H13" s="2">
-        <v>43173</v>
-      </c>
-      <c r="I13" s="2">
         <v>43196</v>
       </c>
+      <c r="I13">
+        <v>64.260000000000005</v>
+      </c>
       <c r="J13">
-        <v>64.26000000000001</v>
-      </c>
-      <c r="K13">
         <v>63.65</v>
       </c>
-      <c r="L13">
-        <v>8.060000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>2.47E-2</v>
       </c>
       <c r="E14">
-        <v>0.0247</v>
+        <v>163.34</v>
       </c>
       <c r="F14">
-        <v>163.34</v>
-      </c>
-      <c r="G14">
         <v>4.04</v>
       </c>
+      <c r="G14" s="2">
+        <v>43159</v>
+      </c>
       <c r="H14" s="2">
-        <v>43159</v>
-      </c>
-      <c r="I14" s="2">
         <v>43174</v>
       </c>
+      <c r="I14">
+        <v>160.28</v>
+      </c>
       <c r="J14">
-        <v>160.28</v>
-      </c>
-      <c r="K14">
-        <v>153.23</v>
-      </c>
-      <c r="L14">
-        <v>-3.060000000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>153.22999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="E15">
-        <v>0.0202</v>
+        <v>110.62</v>
       </c>
       <c r="F15">
-        <v>110.62</v>
-      </c>
-      <c r="G15">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="G15" s="2">
+        <v>43195</v>
       </c>
       <c r="H15" s="2">
-        <v>43195</v>
-      </c>
-      <c r="I15" s="2">
         <v>43220</v>
       </c>
+      <c r="I15">
+        <v>95.852999999999994</v>
+      </c>
       <c r="J15">
-        <v>95.85299999999999</v>
-      </c>
-      <c r="K15">
         <v>90.63</v>
       </c>
-      <c r="L15">
-        <v>-14.76700000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>2.5899999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>0.0259</v>
+        <v>129.63</v>
       </c>
       <c r="F16">
-        <v>129.63</v>
-      </c>
-      <c r="G16">
         <v>3.36</v>
       </c>
+      <c r="G16" s="2">
+        <v>43157</v>
+      </c>
       <c r="H16" s="2">
-        <v>43157</v>
-      </c>
-      <c r="I16" s="2">
         <v>43172</v>
       </c>
+      <c r="I16">
+        <v>135.25899999999999</v>
+      </c>
       <c r="J16">
-        <v>135.259</v>
-      </c>
-      <c r="K16">
         <v>131.38</v>
       </c>
-      <c r="L16">
-        <v>5.628999999999991</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2.35E-2</v>
       </c>
       <c r="E17">
-        <v>0.0235</v>
+        <v>51.1</v>
       </c>
       <c r="F17">
-        <v>51.1</v>
-      </c>
-      <c r="G17">
         <v>1.2</v>
       </c>
+      <c r="G17" s="2">
+        <v>43224</v>
+      </c>
       <c r="H17" s="2">
-        <v>43224</v>
-      </c>
-      <c r="I17" s="2">
         <v>43252</v>
       </c>
+      <c r="I17">
+        <v>38.72</v>
+      </c>
       <c r="J17">
-        <v>38.72</v>
-      </c>
-      <c r="K17">
         <v>36.29</v>
       </c>
-      <c r="L17">
-        <v>-12.38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="E18">
-        <v>0.0386</v>
+        <v>155.36000000000001</v>
       </c>
       <c r="F18">
-        <v>155.36</v>
-      </c>
-      <c r="G18">
         <v>6</v>
       </c>
+      <c r="G18" s="2">
+        <v>43139</v>
+      </c>
       <c r="H18" s="2">
-        <v>43139</v>
-      </c>
-      <c r="I18" s="2">
         <v>43169</v>
       </c>
+      <c r="I18">
+        <v>148.51</v>
+      </c>
       <c r="J18">
-        <v>148.51</v>
-      </c>
-      <c r="K18">
         <v>150.72</v>
       </c>
-      <c r="L18">
-        <v>-6.850000000000023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="E19">
-        <v>0.0238</v>
+        <v>172.86</v>
       </c>
       <c r="F19">
-        <v>172.86</v>
-      </c>
-      <c r="G19">
         <v>4.12</v>
       </c>
+      <c r="G19" s="2">
+        <v>43166</v>
+      </c>
       <c r="H19" s="2">
-        <v>43166</v>
-      </c>
-      <c r="I19" s="2">
         <v>43181</v>
       </c>
+      <c r="I19">
+        <v>162.76</v>
+      </c>
       <c r="J19">
-        <v>162.76</v>
-      </c>
-      <c r="K19">
         <v>155.31</v>
       </c>
-      <c r="L19">
-        <v>-10.10000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="E20">
-        <v>0.0119</v>
+        <v>252.94</v>
       </c>
       <c r="F20">
-        <v>252.94</v>
-      </c>
-      <c r="G20">
         <v>3</v>
       </c>
+      <c r="G20" s="2">
+        <v>43159</v>
+      </c>
       <c r="H20" s="2">
-        <v>43159</v>
-      </c>
-      <c r="I20" s="2">
         <v>43188</v>
       </c>
+      <c r="I20">
+        <v>236.03200000000001</v>
+      </c>
       <c r="J20">
-        <v>236.032</v>
-      </c>
-      <c r="K20">
         <v>226.25</v>
       </c>
-      <c r="L20">
-        <v>-16.90799999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="E21">
-        <v>0.037</v>
+        <v>12.97</v>
       </c>
       <c r="F21">
-        <v>12.97</v>
-      </c>
-      <c r="G21">
         <v>0.48</v>
       </c>
+      <c r="G21" s="2">
+        <v>43154</v>
+      </c>
       <c r="H21" s="2">
-        <v>43154</v>
-      </c>
-      <c r="I21" s="2">
         <v>43215</v>
       </c>
+      <c r="I21">
+        <v>23.6875</v>
+      </c>
       <c r="J21">
-        <v>23.6875</v>
-      </c>
-      <c r="K21">
         <v>26.25</v>
       </c>
-      <c r="L21">
-        <v>10.7175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="E22">
-        <v>0.0398</v>
+        <v>77.430000000000007</v>
       </c>
       <c r="F22">
-        <v>77.43000000000001</v>
-      </c>
-      <c r="G22">
         <v>3.08</v>
       </c>
+      <c r="G22" s="2">
+        <v>43140</v>
+      </c>
       <c r="H22" s="2">
-        <v>43140</v>
-      </c>
-      <c r="I22" s="2">
         <v>43168</v>
       </c>
+      <c r="I22">
+        <v>81.599999999999994</v>
+      </c>
       <c r="J22">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="K22">
         <v>80.81</v>
       </c>
-      <c r="L22">
-        <v>4.169999999999987</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>2.35E-2</v>
       </c>
       <c r="E23">
-        <v>0.0235</v>
+        <v>64.73</v>
       </c>
       <c r="F23">
-        <v>64.73</v>
-      </c>
-      <c r="G23">
         <v>1.52</v>
       </c>
+      <c r="G23" s="2">
+        <v>43158</v>
+      </c>
       <c r="H23" s="2">
-        <v>43158</v>
-      </c>
-      <c r="I23" s="2">
         <v>43174</v>
       </c>
+      <c r="I23">
+        <v>82.87</v>
+      </c>
       <c r="J23">
-        <v>82.87</v>
-      </c>
-      <c r="K23">
-        <v>80.79000000000001</v>
-      </c>
-      <c r="L23">
-        <v>18.14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>80.790000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>3.5499999999999997E-2</v>
       </c>
       <c r="E24">
-        <v>0.0355</v>
+        <v>43.99</v>
       </c>
       <c r="F24">
-        <v>43.99</v>
-      </c>
-      <c r="G24">
         <v>1.56</v>
       </c>
+      <c r="G24" s="2">
+        <v>43173</v>
+      </c>
       <c r="H24" s="2">
-        <v>43173</v>
-      </c>
-      <c r="I24" s="2">
         <v>43192</v>
       </c>
+      <c r="I24">
+        <v>45.9114</v>
+      </c>
       <c r="J24">
-        <v>45.9114</v>
-      </c>
-      <c r="K24">
         <v>45.09</v>
       </c>
-      <c r="L24">
-        <v>1.921399999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="E25">
-        <v>0.0311</v>
+        <v>42.43</v>
       </c>
       <c r="F25">
-        <v>42.43</v>
-      </c>
-      <c r="G25">
         <v>1.32</v>
       </c>
+      <c r="G25" s="2">
+        <v>43194</v>
+      </c>
       <c r="H25" s="2">
-        <v>43194</v>
-      </c>
-      <c r="I25" s="2">
         <v>43215</v>
       </c>
+      <c r="I25">
+        <v>33.365000000000002</v>
+      </c>
       <c r="J25">
-        <v>33.365</v>
-      </c>
-      <c r="K25">
         <v>32.4</v>
       </c>
-      <c r="L25">
-        <v>-9.064999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>3.7600000000000001E-2</v>
       </c>
       <c r="E26">
-        <v>0.0376</v>
+        <v>119.25</v>
       </c>
       <c r="F26">
-        <v>119.25</v>
-      </c>
-      <c r="G26">
-        <v>4.48</v>
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G26" s="2">
+        <v>43146</v>
       </c>
       <c r="H26" s="2">
-        <v>43146</v>
-      </c>
-      <c r="I26" s="2">
         <v>43171</v>
       </c>
+      <c r="I26">
+        <v>117.09</v>
+      </c>
       <c r="J26">
-        <v>117.09</v>
-      </c>
-      <c r="K26">
         <v>109.04</v>
       </c>
-      <c r="L26">
-        <v>-2.159999999999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>2.1299999999999999E-2</v>
       </c>
       <c r="E27">
-        <v>0.0213</v>
+        <v>146.79</v>
       </c>
       <c r="F27">
-        <v>146.79</v>
-      </c>
-      <c r="G27">
         <v>3.12</v>
       </c>
+      <c r="G27" s="2">
+        <v>43210</v>
+      </c>
       <c r="H27" s="2">
-        <v>43210</v>
-      </c>
-      <c r="I27" s="2">
         <v>43239</v>
       </c>
+      <c r="I27">
+        <v>127.15</v>
+      </c>
       <c r="J27">
-        <v>127.15</v>
-      </c>
-      <c r="K27">
         <v>112.13</v>
       </c>
-      <c r="L27">
-        <v>-19.63999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>2.0899999999999998E-2</v>
       </c>
       <c r="E28">
-        <v>0.0209</v>
+        <v>327.36</v>
       </c>
       <c r="F28">
-        <v>327.36</v>
-      </c>
-      <c r="G28">
         <v>6.84</v>
       </c>
+      <c r="G28" s="2">
+        <v>43139</v>
+      </c>
       <c r="H28" s="2">
-        <v>43139</v>
-      </c>
-      <c r="I28" s="2">
         <v>43161</v>
       </c>
+      <c r="I28">
+        <v>255.39</v>
+      </c>
       <c r="J28">
-        <v>255.39</v>
-      </c>
-      <c r="K28">
-        <v>218.144</v>
-      </c>
-      <c r="L28">
-        <v>-71.97000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>218.14400000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>1.46E-2</v>
       </c>
       <c r="E29">
-        <v>0.0146</v>
+        <v>172.44</v>
       </c>
       <c r="F29">
-        <v>172.44</v>
-      </c>
-      <c r="G29">
         <v>2.52</v>
       </c>
+      <c r="G29" s="2">
+        <v>43140</v>
+      </c>
       <c r="H29" s="2">
-        <v>43140</v>
-      </c>
-      <c r="I29" s="2">
         <v>43146</v>
       </c>
+      <c r="I29">
+        <v>156.64099999999999</v>
+      </c>
       <c r="J29">
-        <v>156.641</v>
-      </c>
-      <c r="K29">
-        <v>152.61</v>
-      </c>
-      <c r="L29">
-        <v>-15.79900000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>152.61000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="E30">
-        <v>0.0153</v>
+        <v>91.6</v>
       </c>
       <c r="F30">
-        <v>91.59999999999999</v>
-      </c>
-      <c r="G30">
         <v>1.4</v>
       </c>
+      <c r="G30" s="2">
+        <v>43195</v>
+      </c>
       <c r="H30" s="2">
-        <v>43195</v>
-      </c>
-      <c r="I30" s="2">
         <v>43230</v>
       </c>
+      <c r="I30">
+        <v>90.34</v>
+      </c>
       <c r="J30">
-        <v>90.34</v>
-      </c>
-      <c r="K30">
-        <v>84.13039999999999</v>
-      </c>
-      <c r="L30">
-        <v>-1.259999999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>84.130399999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>2.5399999999999999E-2</v>
       </c>
       <c r="E31">
-        <v>0.0254</v>
+        <v>214.33</v>
       </c>
       <c r="F31">
-        <v>214.33</v>
-      </c>
-      <c r="G31">
         <v>5.44</v>
       </c>
+      <c r="G31" s="2">
+        <v>43146</v>
+      </c>
       <c r="H31" s="2">
-        <v>43146</v>
-      </c>
-      <c r="I31" s="2">
         <v>43171</v>
       </c>
+      <c r="I31">
+        <v>216.33</v>
+      </c>
       <c r="J31">
-        <v>216.33</v>
-      </c>
-      <c r="K31">
         <v>206.69</v>
-      </c>
-      <c r="L31">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/downloads/notebooks/data/Dow.xlsx
+++ b/downloads/notebooks/data/Dow.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\jasmin\jasminblog\content\downloads\notebooks\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Stock Symbol</t>
   </si>
@@ -27,6 +22,9 @@
     <t>Company Name</t>
   </si>
   <si>
+    <t>Com Rate %</t>
+  </si>
+  <si>
     <t>Dividend Yield</t>
   </si>
   <si>
@@ -46,6 +44,9 @@
   </si>
   <si>
     <t>200-day moving average</t>
+  </si>
+  <si>
+    <t>Dif 50-day</t>
   </si>
   <si>
     <t>WMT</t>
@@ -231,11 +232,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,14 +300,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -353,7 +346,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,10 +378,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -420,7 +412,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -596,16 +587,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,965 +622,1151 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2">
-        <v>2.4199999999999999E-2</v>
+        <v>5</v>
       </c>
       <c r="E2">
+        <v>0.0242</v>
+      </c>
+      <c r="F2">
         <v>85.91</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2.08</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>43440</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>43467</v>
       </c>
-      <c r="I2">
-        <v>82.35</v>
-      </c>
       <c r="J2">
-        <v>78.680000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="K2">
+        <v>78.68000000000001</v>
+      </c>
+      <c r="L2">
+        <v>-3.560000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>7.0000000000000001E-3</v>
+        <v>5</v>
       </c>
       <c r="E3">
+        <v>0.007</v>
+      </c>
+      <c r="F3">
         <v>119.78</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.84</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>43146</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>43165</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>106.44</v>
       </c>
-      <c r="J3">
-        <v>98.962699999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>98.9627</v>
+      </c>
+      <c r="L3">
+        <v>-13.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4">
-        <v>4.9599999999999998E-2</v>
+        <v>5</v>
       </c>
       <c r="E4">
+        <v>0.0496</v>
+      </c>
+      <c r="F4">
         <v>47.58</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2.36</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>43199</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>43221</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>48.73</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>47.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1.149999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>1.35E-2</v>
+        <v>5</v>
       </c>
       <c r="E5">
+        <v>0.0135</v>
+      </c>
+      <c r="F5">
         <v>221.9</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>43167</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>43179</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>198.85</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>187.48</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>-23.05000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>2.29E-2</v>
+        <v>5</v>
       </c>
       <c r="E6">
+        <v>0.0229</v>
+      </c>
+      <c r="F6">
         <v>122.45</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.8</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>43146</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>43169</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>116.43</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>118.62</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>-6.019999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>2.1100000000000001E-2</v>
+        <v>5</v>
       </c>
       <c r="E7">
+        <v>0.0211</v>
+      </c>
+      <c r="F7">
         <v>136.59</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2.88</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43167</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43189</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>125.36</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>124.75</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>-11.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D8">
-        <v>1.67E-2</v>
+        <v>5</v>
       </c>
       <c r="E8">
+        <v>0.0167</v>
+      </c>
+      <c r="F8">
         <v>100.8</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1.68</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>43077</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="2">
         <v>43111</v>
       </c>
-      <c r="I8">
-        <v>98.688000000000002</v>
-      </c>
       <c r="J8">
+        <v>98.688</v>
+      </c>
+      <c r="K8">
         <v>104.858</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>-2.111999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>3.6700000000000003E-2</v>
+        <v>5</v>
       </c>
       <c r="E9">
+        <v>0.0367</v>
+      </c>
+      <c r="F9">
         <v>78.27</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2.87</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>43209</v>
       </c>
-      <c r="H9" s="2">
+      <c r="I9" s="2">
         <v>43235</v>
       </c>
-      <c r="I9">
-        <v>91.686400000000006</v>
-      </c>
       <c r="J9">
-        <v>89.76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91.68640000000001</v>
+      </c>
+      <c r="K9">
+        <v>89.76000000000001</v>
+      </c>
+      <c r="L9">
+        <v>13.41640000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>3.7999999999999999E-2</v>
+        <v>5</v>
       </c>
       <c r="E10">
+        <v>0.038</v>
+      </c>
+      <c r="F10">
         <v>35.79</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.36</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>43132</v>
       </c>
-      <c r="H10" s="2">
+      <c r="I10" s="2">
         <v>43160</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>35.81</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>33.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0.02000000000000313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D11">
-        <v>1.2E-2</v>
+        <v>5</v>
       </c>
       <c r="E11">
+        <v>0.012</v>
+      </c>
+      <c r="F11">
         <v>66.83</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>43161</v>
       </c>
-      <c r="H11" s="2">
+      <c r="I11" s="2">
         <v>43192</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>52.85</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>54.69</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>-13.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>1.83E-2</v>
+        <v>5</v>
       </c>
       <c r="E12">
+        <v>0.0183</v>
+      </c>
+      <c r="F12">
         <v>91.86</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1.68</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>43236</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>43265</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>76.09</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>-15.77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13">
-        <v>3.4200000000000001E-2</v>
+        <v>5</v>
       </c>
       <c r="E13">
+        <v>0.0342</v>
+      </c>
+      <c r="F13">
         <v>56.2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.92</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="2">
         <v>43173</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <v>43196</v>
       </c>
-      <c r="I13">
-        <v>64.260000000000005</v>
-      </c>
       <c r="J13">
+        <v>64.26000000000001</v>
+      </c>
+      <c r="K13">
         <v>63.65</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>8.060000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14">
-        <v>2.47E-2</v>
+        <v>5</v>
       </c>
       <c r="E14">
+        <v>0.0247</v>
+      </c>
+      <c r="F14">
         <v>163.34</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4.04</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="2">
         <v>43159</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>43174</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>160.28</v>
       </c>
-      <c r="J14">
-        <v>153.22999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>153.23</v>
+      </c>
+      <c r="L14">
+        <v>-3.060000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>2.0199999999999999E-2</v>
+        <v>5</v>
       </c>
       <c r="E15">
+        <v>0.0202</v>
+      </c>
+      <c r="F15">
         <v>110.62</v>
       </c>
-      <c r="F15">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="G15">
+        <v>2.24</v>
+      </c>
+      <c r="H15" s="2">
         <v>43195</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>43220</v>
       </c>
-      <c r="I15">
-        <v>95.852999999999994</v>
-      </c>
       <c r="J15">
+        <v>95.85299999999999</v>
+      </c>
+      <c r="K15">
         <v>90.63</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>-14.76700000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>2.5899999999999999E-2</v>
+        <v>5</v>
       </c>
       <c r="E16">
+        <v>0.0259</v>
+      </c>
+      <c r="F16">
         <v>129.63</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3.36</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>43157</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <v>43172</v>
       </c>
-      <c r="I16">
-        <v>135.25899999999999</v>
-      </c>
       <c r="J16">
+        <v>135.259</v>
+      </c>
+      <c r="K16">
         <v>131.38</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>5.628999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>2.35E-2</v>
+        <v>5</v>
       </c>
       <c r="E17">
+        <v>0.0235</v>
+      </c>
+      <c r="F17">
         <v>51.1</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>43224</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <v>43252</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>38.72</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>36.29</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>-12.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>3.8600000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>155.36000000000001</v>
+        <v>0.0386</v>
       </c>
       <c r="F18">
+        <v>155.36</v>
+      </c>
+      <c r="G18">
         <v>6</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>43139</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <v>43169</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>148.51</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>150.72</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>-6.850000000000023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19">
-        <v>2.3800000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="E19">
+        <v>0.0238</v>
+      </c>
+      <c r="F19">
         <v>172.86</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4.12</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>43166</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <v>43181</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>162.76</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>155.31</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>-10.10000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D20">
-        <v>1.1900000000000001E-2</v>
+        <v>5</v>
       </c>
       <c r="E20">
+        <v>0.0119</v>
+      </c>
+      <c r="F20">
         <v>252.94</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3</v>
       </c>
-      <c r="G20" s="2">
+      <c r="H20" s="2">
         <v>43159</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <v>43188</v>
       </c>
-      <c r="I20">
-        <v>236.03200000000001</v>
-      </c>
       <c r="J20">
+        <v>236.032</v>
+      </c>
+      <c r="K20">
         <v>226.25</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>-16.90799999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>3.6999999999999998E-2</v>
+        <v>5</v>
       </c>
       <c r="E21">
+        <v>0.037</v>
+      </c>
+      <c r="F21">
         <v>12.97</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.48</v>
       </c>
-      <c r="G21" s="2">
+      <c r="H21" s="2">
         <v>43154</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <v>43215</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>23.6875</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>26.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>10.7175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>3.9800000000000002E-2</v>
+        <v>5</v>
       </c>
       <c r="E22">
-        <v>77.430000000000007</v>
+        <v>0.0398</v>
       </c>
       <c r="F22">
+        <v>77.43000000000001</v>
+      </c>
+      <c r="G22">
         <v>3.08</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>43140</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <v>43168</v>
       </c>
-      <c r="I22">
-        <v>81.599999999999994</v>
-      </c>
       <c r="J22">
+        <v>81.59999999999999</v>
+      </c>
+      <c r="K22">
         <v>80.81</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>4.169999999999987</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>2.35E-2</v>
+        <v>5</v>
       </c>
       <c r="E23">
+        <v>0.0235</v>
+      </c>
+      <c r="F23">
         <v>64.73</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1.52</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>43158</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <v>43174</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>82.87</v>
       </c>
-      <c r="J23">
-        <v>80.790000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>80.79000000000001</v>
+      </c>
+      <c r="L23">
+        <v>18.14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>3.5499999999999997E-2</v>
+        <v>5</v>
       </c>
       <c r="E24">
+        <v>0.0355</v>
+      </c>
+      <c r="F24">
         <v>43.99</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.56</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>43173</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <v>43192</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>45.9114</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>45.09</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>1.921399999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D25">
-        <v>3.1099999999999999E-2</v>
+        <v>5</v>
       </c>
       <c r="E25">
+        <v>0.0311</v>
+      </c>
+      <c r="F25">
         <v>42.43</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>1.32</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>43194</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <v>43215</v>
       </c>
-      <c r="I25">
-        <v>33.365000000000002</v>
-      </c>
       <c r="J25">
+        <v>33.365</v>
+      </c>
+      <c r="K25">
         <v>32.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>-9.064999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D26">
-        <v>3.7600000000000001E-2</v>
+        <v>5</v>
       </c>
       <c r="E26">
+        <v>0.0376</v>
+      </c>
+      <c r="F26">
         <v>119.25</v>
       </c>
-      <c r="F26">
-        <v>4.4800000000000004</v>
-      </c>
-      <c r="G26" s="2">
+      <c r="G26">
+        <v>4.48</v>
+      </c>
+      <c r="H26" s="2">
         <v>43146</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <v>43171</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>117.09</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>109.04</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>-2.159999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D27">
-        <v>2.1299999999999999E-2</v>
+        <v>5</v>
       </c>
       <c r="E27">
+        <v>0.0213</v>
+      </c>
+      <c r="F27">
         <v>146.79</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3.12</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>43210</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <v>43239</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>127.15</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>112.13</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>-19.63999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>2.0899999999999998E-2</v>
+        <v>5</v>
       </c>
       <c r="E28">
+        <v>0.0209</v>
+      </c>
+      <c r="F28">
         <v>327.36</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>6.84</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>43139</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>43161</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>255.39</v>
       </c>
-      <c r="J28">
-        <v>218.14400000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>218.144</v>
+      </c>
+      <c r="L28">
+        <v>-71.97000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>1.46E-2</v>
+        <v>5</v>
       </c>
       <c r="E29">
+        <v>0.0146</v>
+      </c>
+      <c r="F29">
         <v>172.44</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>2.52</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>43140</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <v>43146</v>
       </c>
-      <c r="I29">
-        <v>156.64099999999999</v>
-      </c>
       <c r="J29">
-        <v>152.61000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156.641</v>
+      </c>
+      <c r="K29">
+        <v>152.61</v>
+      </c>
+      <c r="L29">
+        <v>-15.79900000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D30">
-        <v>1.5299999999999999E-2</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>91.6</v>
+        <v>0.0153</v>
       </c>
       <c r="F30">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="G30">
         <v>1.4</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>43195</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <v>43230</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>90.34</v>
       </c>
-      <c r="J30">
-        <v>84.130399999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>84.13039999999999</v>
+      </c>
+      <c r="L30">
+        <v>-1.259999999999991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>2.5399999999999999E-2</v>
+        <v>5</v>
       </c>
       <c r="E31">
+        <v>0.0254</v>
+      </c>
+      <c r="F31">
         <v>214.33</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>5.44</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>43146</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <v>43171</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>216.33</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>206.69</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
